--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efna2-Epha4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efna2-Epha4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.232994333333333</v>
+        <v>2.392360666666667</v>
       </c>
       <c r="H2">
-        <v>3.698983</v>
+        <v>7.177082</v>
       </c>
       <c r="I2">
-        <v>0.1643301600451615</v>
+        <v>0.3855356539589258</v>
       </c>
       <c r="J2">
-        <v>0.1643301600451615</v>
+        <v>0.3855356539589258</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.588395333333334</v>
+        <v>6.458467</v>
       </c>
       <c r="N2">
-        <v>19.765186</v>
+        <v>19.375401</v>
       </c>
       <c r="O2">
-        <v>0.6088932199877385</v>
+        <v>0.6832669775810905</v>
       </c>
       <c r="P2">
-        <v>0.6088932199877384</v>
+        <v>0.6832669775810902</v>
       </c>
       <c r="Q2">
-        <v>8.123454111759777</v>
+        <v>15.45098241776467</v>
       </c>
       <c r="R2">
-        <v>73.11108700583799</v>
+        <v>139.058841759882</v>
       </c>
       <c r="S2">
-        <v>0.1000595202909988</v>
+        <v>0.2634237810302644</v>
       </c>
       <c r="T2">
-        <v>0.1000595202909988</v>
+        <v>0.2634237810302643</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.232994333333333</v>
+        <v>2.392360666666667</v>
       </c>
       <c r="H3">
-        <v>3.698983</v>
+        <v>7.177082</v>
       </c>
       <c r="I3">
-        <v>0.1643301600451615</v>
+        <v>0.3855356539589258</v>
       </c>
       <c r="J3">
-        <v>0.1643301600451615</v>
+        <v>0.3855356539589258</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>7.350066</v>
       </c>
       <c r="O3">
-        <v>0.2264286991208885</v>
+        <v>0.2591975970376838</v>
       </c>
       <c r="P3">
-        <v>0.2264286991208884</v>
+        <v>0.2591975970376837</v>
       </c>
       <c r="Q3">
-        <v>3.020863242542</v>
+        <v>5.861336265268001</v>
       </c>
       <c r="R3">
-        <v>27.187769182878</v>
+        <v>52.752026387412</v>
       </c>
       <c r="S3">
-        <v>0.03720906436535332</v>
+        <v>0.09992991507850556</v>
       </c>
       <c r="T3">
-        <v>0.03720906436535331</v>
+        <v>0.0999299150785055</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.232994333333333</v>
+        <v>2.392360666666667</v>
       </c>
       <c r="H4">
-        <v>3.698983</v>
+        <v>7.177082</v>
       </c>
       <c r="I4">
-        <v>0.1643301600451615</v>
+        <v>0.3855356539589258</v>
       </c>
       <c r="J4">
-        <v>0.1643301600451615</v>
+        <v>0.3855356539589258</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.02679433333333334</v>
+        <v>0.02679433333333333</v>
       </c>
       <c r="N4">
-        <v>0.08038300000000001</v>
+        <v>0.080383</v>
       </c>
       <c r="O4">
-        <v>0.002476306759889555</v>
+        <v>0.00283467936786964</v>
       </c>
       <c r="P4">
-        <v>0.002476306759889555</v>
+        <v>0.002834679367869639</v>
       </c>
       <c r="Q4">
-        <v>0.03303726116544445</v>
+        <v>0.06410170915622222</v>
       </c>
       <c r="R4">
-        <v>0.297335350489</v>
+        <v>0.576915382406</v>
       </c>
       <c r="S4">
-        <v>0.0004069318861735658</v>
+        <v>0.001092869963855496</v>
       </c>
       <c r="T4">
-        <v>0.0004069318861735657</v>
+        <v>0.001092869963855496</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.232994333333333</v>
+        <v>2.392360666666667</v>
       </c>
       <c r="H5">
-        <v>3.698983</v>
+        <v>7.177082</v>
       </c>
       <c r="I5">
-        <v>0.1643301600451615</v>
+        <v>0.3855356539589258</v>
       </c>
       <c r="J5">
-        <v>0.1643301600451615</v>
+        <v>0.3855356539589258</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.706050333333333</v>
+        <v>0.4704593333333333</v>
       </c>
       <c r="N5">
-        <v>5.118151</v>
+        <v>1.411378</v>
       </c>
       <c r="O5">
-        <v>0.157671546464246</v>
+        <v>0.04977176886736147</v>
       </c>
       <c r="P5">
-        <v>0.1576715464642459</v>
+        <v>0.04977176886736145</v>
       </c>
       <c r="Q5">
-        <v>2.103550393381445</v>
+        <v>1.125508404332889</v>
       </c>
       <c r="R5">
-        <v>18.931953540433</v>
+        <v>10.129575638996</v>
       </c>
       <c r="S5">
-        <v>0.02591019046503766</v>
+        <v>0.01918879145897071</v>
       </c>
       <c r="T5">
-        <v>0.02591019046503765</v>
+        <v>0.0191887914589707</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1.232994333333333</v>
+        <v>2.392360666666667</v>
       </c>
       <c r="H6">
-        <v>3.698983</v>
+        <v>7.177082</v>
       </c>
       <c r="I6">
-        <v>0.1643301600451615</v>
+        <v>0.3855356539589258</v>
       </c>
       <c r="J6">
-        <v>0.1643301600451615</v>
+        <v>0.3855356539589258</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -815,84 +815,84 @@
         <v>0.139771</v>
       </c>
       <c r="O6">
-        <v>0.004305834220376484</v>
+        <v>0.004928977145994893</v>
       </c>
       <c r="P6">
-        <v>0.004305834220376484</v>
+        <v>0.004928977145994892</v>
       </c>
       <c r="Q6">
-        <v>0.05744561698811111</v>
+        <v>0.1114608809135556</v>
       </c>
       <c r="R6">
-        <v>0.517010552893</v>
+        <v>1.003147928222</v>
       </c>
       <c r="S6">
-        <v>0.0007075784265624008</v>
+        <v>0.001900296427329741</v>
       </c>
       <c r="T6">
-        <v>0.0007075784265624007</v>
+        <v>0.00190029642732974</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1.232994333333333</v>
+        <v>2.159122333333333</v>
       </c>
       <c r="H7">
-        <v>3.698983</v>
+        <v>6.477366999999999</v>
       </c>
       <c r="I7">
-        <v>0.1643301600451615</v>
+        <v>0.3479486401683811</v>
       </c>
       <c r="J7">
-        <v>0.1643301600451615</v>
+        <v>0.3479486401683811</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.002428</v>
+        <v>6.458467</v>
       </c>
       <c r="N7">
-        <v>0.007284000000000001</v>
+        <v>19.375401</v>
       </c>
       <c r="O7">
-        <v>0.0002243934468610964</v>
+        <v>0.6832669775810905</v>
       </c>
       <c r="P7">
-        <v>0.0002243934468610964</v>
+        <v>0.6832669775810902</v>
       </c>
       <c r="Q7">
-        <v>0.002993710241333333</v>
+        <v>13.94462033879633</v>
       </c>
       <c r="R7">
-        <v>0.026943392172</v>
+        <v>125.501583049167</v>
       </c>
       <c r="S7">
-        <v>3.687461103576942E-05</v>
+        <v>0.2377418157213001</v>
       </c>
       <c r="T7">
-        <v>3.687461103576941E-05</v>
+        <v>0.2377418157213</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,10 +921,10 @@
         <v>6.477366999999999</v>
       </c>
       <c r="I8">
-        <v>0.2877620026318713</v>
+        <v>0.3479486401683811</v>
       </c>
       <c r="J8">
-        <v>0.2877620026318713</v>
+        <v>0.3479486401683811</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.588395333333334</v>
+        <v>2.450022</v>
       </c>
       <c r="N8">
-        <v>19.765186</v>
+        <v>7.350066</v>
       </c>
       <c r="O8">
-        <v>0.6088932199877385</v>
+        <v>0.2591975970376838</v>
       </c>
       <c r="P8">
-        <v>0.6088932199877384</v>
+        <v>0.2591975970376837</v>
       </c>
       <c r="Q8">
-        <v>14.22515150502911</v>
+        <v>5.289897217357999</v>
       </c>
       <c r="R8">
-        <v>128.026363545262</v>
+        <v>47.609074956222</v>
       </c>
       <c r="S8">
-        <v>0.1752163323726402</v>
+        <v>0.09018745142417407</v>
       </c>
       <c r="T8">
-        <v>0.1752163323726402</v>
+        <v>0.09018745142417403</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>6.477366999999999</v>
       </c>
       <c r="I9">
-        <v>0.2877620026318713</v>
+        <v>0.3479486401683811</v>
       </c>
       <c r="J9">
-        <v>0.2877620026318713</v>
+        <v>0.3479486401683811</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>2.450022</v>
+        <v>0.02679433333333333</v>
       </c>
       <c r="N9">
-        <v>7.350066</v>
+        <v>0.080383</v>
       </c>
       <c r="O9">
-        <v>0.2264286991208885</v>
+        <v>0.00283467936786964</v>
       </c>
       <c r="P9">
-        <v>0.2264286991208884</v>
+        <v>0.002834679367869639</v>
       </c>
       <c r="Q9">
-        <v>5.289897217357999</v>
+        <v>0.05785224350677776</v>
       </c>
       <c r="R9">
-        <v>47.609074956222</v>
+        <v>0.5206701915609999</v>
       </c>
       <c r="S9">
-        <v>0.06515757591235631</v>
+        <v>0.0009863228313636073</v>
       </c>
       <c r="T9">
-        <v>0.0651575759123563</v>
+        <v>0.0009863228313636071</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>6.477366999999999</v>
       </c>
       <c r="I10">
-        <v>0.2877620026318713</v>
+        <v>0.3479486401683811</v>
       </c>
       <c r="J10">
-        <v>0.2877620026318713</v>
+        <v>0.3479486401683811</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.02679433333333334</v>
+        <v>0.4704593333333333</v>
       </c>
       <c r="N10">
-        <v>0.08038300000000001</v>
+        <v>1.411378</v>
       </c>
       <c r="O10">
-        <v>0.002476306759889555</v>
+        <v>0.04977176886736147</v>
       </c>
       <c r="P10">
-        <v>0.002476306759889555</v>
+        <v>0.04977176886736145</v>
       </c>
       <c r="Q10">
-        <v>0.05785224350677778</v>
+        <v>1.015779253525111</v>
       </c>
       <c r="R10">
-        <v>0.520670191561</v>
+        <v>9.142013281725999</v>
       </c>
       <c r="S10">
-        <v>0.0007125869923566588</v>
+        <v>0.01731801929617338</v>
       </c>
       <c r="T10">
-        <v>0.0007125869923566587</v>
+        <v>0.01731801929617338</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>6.477366999999999</v>
       </c>
       <c r="I11">
-        <v>0.2877620026318713</v>
+        <v>0.3479486401683811</v>
       </c>
       <c r="J11">
-        <v>0.2877620026318713</v>
+        <v>0.3479486401683811</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>1.706050333333333</v>
+        <v>0.04659033333333334</v>
       </c>
       <c r="N11">
-        <v>5.118151</v>
+        <v>0.139771</v>
       </c>
       <c r="O11">
-        <v>0.157671546464246</v>
+        <v>0.004928977145994893</v>
       </c>
       <c r="P11">
-        <v>0.1576715464642459</v>
+        <v>0.004928977145994892</v>
       </c>
       <c r="Q11">
-        <v>3.683571376490777</v>
+        <v>0.1005942292174444</v>
       </c>
       <c r="R11">
-        <v>33.152142388417</v>
+        <v>0.9053480629569999</v>
       </c>
       <c r="S11">
-        <v>0.04537187996861557</v>
+        <v>0.001715030895369951</v>
       </c>
       <c r="T11">
-        <v>0.04537187996861556</v>
+        <v>0.00171503089536995</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,117 +1154,117 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>2.159122333333333</v>
+        <v>0.09675766666666667</v>
       </c>
       <c r="H12">
-        <v>6.477366999999999</v>
+        <v>0.290273</v>
       </c>
       <c r="I12">
-        <v>0.2877620026318713</v>
+        <v>0.01559277027650224</v>
       </c>
       <c r="J12">
-        <v>0.2877620026318713</v>
+        <v>0.01559277027650224</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.04659033333333334</v>
+        <v>6.458467</v>
       </c>
       <c r="N12">
-        <v>0.139771</v>
+        <v>19.375401</v>
       </c>
       <c r="O12">
-        <v>0.004305834220376484</v>
+        <v>0.6832669775810905</v>
       </c>
       <c r="P12">
-        <v>0.004305834220376484</v>
+        <v>0.6832669775810902</v>
       </c>
       <c r="Q12">
-        <v>0.1005942292174444</v>
+        <v>0.6249061971636667</v>
       </c>
       <c r="R12">
-        <v>0.9053480629569999</v>
+        <v>5.624155774473</v>
       </c>
       <c r="S12">
-        <v>0.00123905547825638</v>
+        <v>0.01065402501894195</v>
       </c>
       <c r="T12">
-        <v>0.001239055478256379</v>
+        <v>0.01065402501894195</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>2.159122333333333</v>
+        <v>0.09675766666666667</v>
       </c>
       <c r="H13">
-        <v>6.477366999999999</v>
+        <v>0.290273</v>
       </c>
       <c r="I13">
-        <v>0.2877620026318713</v>
+        <v>0.01559277027650224</v>
       </c>
       <c r="J13">
-        <v>0.2877620026318713</v>
+        <v>0.01559277027650224</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.002428</v>
+        <v>2.450022</v>
       </c>
       <c r="N13">
-        <v>0.007284000000000001</v>
+        <v>7.350066</v>
       </c>
       <c r="O13">
-        <v>0.0002243934468610964</v>
+        <v>0.2591975970376838</v>
       </c>
       <c r="P13">
-        <v>0.0002243934468610964</v>
+        <v>0.2591975970376837</v>
       </c>
       <c r="Q13">
-        <v>0.005242349025333332</v>
+        <v>0.237058412002</v>
       </c>
       <c r="R13">
-        <v>0.047181141228</v>
+        <v>2.133525708018</v>
       </c>
       <c r="S13">
-        <v>6.457190764621752E-05</v>
+        <v>0.004041608586830002</v>
       </c>
       <c r="T13">
-        <v>6.457190764621749E-05</v>
+        <v>0.004041608586829999</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.6462516666666667</v>
+        <v>0.09675766666666667</v>
       </c>
       <c r="H14">
-        <v>1.938755</v>
+        <v>0.290273</v>
       </c>
       <c r="I14">
-        <v>0.08613067955120558</v>
+        <v>0.01559277027650224</v>
       </c>
       <c r="J14">
-        <v>0.08613067955120557</v>
+        <v>0.01559277027650224</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>6.588395333333334</v>
+        <v>0.02679433333333333</v>
       </c>
       <c r="N14">
-        <v>19.765186</v>
+        <v>0.080383</v>
       </c>
       <c r="O14">
-        <v>0.6088932199877385</v>
+        <v>0.00283467936786964</v>
       </c>
       <c r="P14">
-        <v>0.6088932199877384</v>
+        <v>0.002834679367869639</v>
       </c>
       <c r="Q14">
-        <v>4.257761464825556</v>
+        <v>0.002592557173222222</v>
       </c>
       <c r="R14">
-        <v>38.31985318343</v>
+        <v>0.023333014559</v>
       </c>
       <c r="S14">
-        <v>0.05244438681166563</v>
+        <v>4.420050419073189E-05</v>
       </c>
       <c r="T14">
-        <v>0.05244438681166561</v>
+        <v>4.420050419073187E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,25 +1340,25 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.6462516666666667</v>
+        <v>0.09675766666666667</v>
       </c>
       <c r="H15">
-        <v>1.938755</v>
+        <v>0.290273</v>
       </c>
       <c r="I15">
-        <v>0.08613067955120558</v>
+        <v>0.01559277027650224</v>
       </c>
       <c r="J15">
-        <v>0.08613067955120557</v>
+        <v>0.01559277027650224</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.450022</v>
+        <v>0.4704593333333333</v>
       </c>
       <c r="N15">
-        <v>7.350066</v>
+        <v>1.411378</v>
       </c>
       <c r="O15">
-        <v>0.2264286991208885</v>
+        <v>0.04977176886736147</v>
       </c>
       <c r="P15">
-        <v>0.2264286991208884</v>
+        <v>0.04977176886736145</v>
       </c>
       <c r="Q15">
-        <v>1.58333080087</v>
+        <v>0.04552054735488889</v>
       </c>
       <c r="R15">
-        <v>14.24997720783</v>
+        <v>0.409684926194</v>
       </c>
       <c r="S15">
-        <v>0.01950245772517759</v>
+        <v>0.0007760797582039336</v>
       </c>
       <c r="T15">
-        <v>0.01950245772517759</v>
+        <v>0.0007760797582039333</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,25 +1402,25 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.6462516666666667</v>
+        <v>0.09675766666666667</v>
       </c>
       <c r="H16">
-        <v>1.938755</v>
+        <v>0.290273</v>
       </c>
       <c r="I16">
-        <v>0.08613067955120558</v>
+        <v>0.01559277027650224</v>
       </c>
       <c r="J16">
-        <v>0.08613067955120557</v>
+        <v>0.01559277027650224</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,33 +1429,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.02679433333333334</v>
+        <v>0.04659033333333334</v>
       </c>
       <c r="N16">
-        <v>0.08038300000000001</v>
+        <v>0.139771</v>
       </c>
       <c r="O16">
-        <v>0.002476306759889555</v>
+        <v>0.004928977145994893</v>
       </c>
       <c r="P16">
-        <v>0.002476306759889555</v>
+        <v>0.004928977145994892</v>
       </c>
       <c r="Q16">
-        <v>0.01731588257388889</v>
+        <v>0.004507971942555557</v>
       </c>
       <c r="R16">
-        <v>0.155842943165</v>
+        <v>0.040571747483</v>
       </c>
       <c r="S16">
-        <v>0.0002132859840065314</v>
+        <v>7.685640833562803E-05</v>
       </c>
       <c r="T16">
-        <v>0.0002132859840065314</v>
+        <v>7.685640833562799E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.6462516666666667</v>
+        <v>0.8617126666666667</v>
       </c>
       <c r="H17">
-        <v>1.938755</v>
+        <v>2.585138</v>
       </c>
       <c r="I17">
-        <v>0.08613067955120558</v>
+        <v>0.1388674212450226</v>
       </c>
       <c r="J17">
-        <v>0.08613067955120557</v>
+        <v>0.1388674212450226</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.706050333333333</v>
+        <v>6.458467</v>
       </c>
       <c r="N17">
-        <v>5.118151</v>
+        <v>19.375401</v>
       </c>
       <c r="O17">
-        <v>0.157671546464246</v>
+        <v>0.6832669775810905</v>
       </c>
       <c r="P17">
-        <v>0.1576715464642459</v>
+        <v>0.6832669775810902</v>
       </c>
       <c r="Q17">
-        <v>1.102537871333889</v>
+        <v>5.565342821148667</v>
       </c>
       <c r="R17">
-        <v>9.922840842005</v>
+        <v>50.088085390338</v>
       </c>
       <c r="S17">
-        <v>0.01358035744285499</v>
+        <v>0.09488352319856672</v>
       </c>
       <c r="T17">
-        <v>0.01358035744285499</v>
+        <v>0.09488352319856667</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,61 +1535,61 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.6462516666666667</v>
+        <v>0.8617126666666667</v>
       </c>
       <c r="H18">
-        <v>1.938755</v>
+        <v>2.585138</v>
       </c>
       <c r="I18">
-        <v>0.08613067955120558</v>
+        <v>0.1388674212450226</v>
       </c>
       <c r="J18">
-        <v>0.08613067955120557</v>
+        <v>0.1388674212450226</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.04659033333333334</v>
+        <v>2.450022</v>
       </c>
       <c r="N18">
-        <v>0.139771</v>
+        <v>7.350066</v>
       </c>
       <c r="O18">
-        <v>0.004305834220376484</v>
+        <v>0.2591975970376838</v>
       </c>
       <c r="P18">
-        <v>0.004305834220376484</v>
+        <v>0.2591975970376837</v>
       </c>
       <c r="Q18">
-        <v>0.03010908056722222</v>
+        <v>2.111214991012</v>
       </c>
       <c r="R18">
-        <v>0.270981725105</v>
+        <v>19.000934919108</v>
       </c>
       <c r="S18">
-        <v>0.0003708644274358621</v>
+        <v>0.03599410189352967</v>
       </c>
       <c r="T18">
-        <v>0.000370864427435862</v>
+        <v>0.03599410189352965</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
       <c r="E19">
         <v>3</v>
       </c>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.6462516666666667</v>
+        <v>0.8617126666666667</v>
       </c>
       <c r="H19">
-        <v>1.938755</v>
+        <v>2.585138</v>
       </c>
       <c r="I19">
-        <v>0.08613067955120558</v>
+        <v>0.1388674212450226</v>
       </c>
       <c r="J19">
-        <v>0.08613067955120557</v>
+        <v>0.1388674212450226</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1615,28 +1615,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.002428</v>
+        <v>0.02679433333333333</v>
       </c>
       <c r="N19">
-        <v>0.007284000000000001</v>
+        <v>0.080383</v>
       </c>
       <c r="O19">
-        <v>0.0002243934468610964</v>
+        <v>0.00283467936786964</v>
       </c>
       <c r="P19">
-        <v>0.0002243934468610964</v>
+        <v>0.002834679367869639</v>
       </c>
       <c r="Q19">
-        <v>0.001569099046666667</v>
+        <v>0.02308901642822222</v>
       </c>
       <c r="R19">
-        <v>0.01412189142</v>
+        <v>0.207801147854</v>
       </c>
       <c r="S19">
-        <v>1.932716006498358E-05</v>
+        <v>0.0003936446138725278</v>
       </c>
       <c r="T19">
-        <v>1.932716006498357E-05</v>
+        <v>0.0003936446138725276</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.056275666666667</v>
+        <v>0.8617126666666667</v>
       </c>
       <c r="H20">
-        <v>6.168827</v>
+        <v>2.585138</v>
       </c>
       <c r="I20">
-        <v>0.2740548762189265</v>
+        <v>0.1388674212450226</v>
       </c>
       <c r="J20">
-        <v>0.2740548762189265</v>
+        <v>0.1388674212450226</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.588395333333334</v>
+        <v>0.4704593333333333</v>
       </c>
       <c r="N20">
-        <v>19.765186</v>
+        <v>1.411378</v>
       </c>
       <c r="O20">
-        <v>0.6088932199877385</v>
+        <v>0.04977176886736147</v>
       </c>
       <c r="P20">
-        <v>0.6088932199877384</v>
+        <v>0.04977176886736145</v>
       </c>
       <c r="Q20">
-        <v>13.54755700631356</v>
+        <v>0.4054007666848889</v>
       </c>
       <c r="R20">
-        <v>121.928013056822</v>
+        <v>3.648606900164</v>
       </c>
       <c r="S20">
-        <v>0.1668701560342833</v>
+        <v>0.006911677193413788</v>
       </c>
       <c r="T20">
-        <v>0.1668701560342832</v>
+        <v>0.006911677193413785</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.056275666666667</v>
+        <v>0.8617126666666667</v>
       </c>
       <c r="H21">
-        <v>6.168827</v>
+        <v>2.585138</v>
       </c>
       <c r="I21">
-        <v>0.2740548762189265</v>
+        <v>0.1388674212450226</v>
       </c>
       <c r="J21">
-        <v>0.2740548762189265</v>
+        <v>0.1388674212450226</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>2.450022</v>
+        <v>0.04659033333333334</v>
       </c>
       <c r="N21">
-        <v>7.350066</v>
+        <v>0.139771</v>
       </c>
       <c r="O21">
-        <v>0.2264286991208885</v>
+        <v>0.004928977145994893</v>
       </c>
       <c r="P21">
-        <v>0.2264286991208884</v>
+        <v>0.004928977145994892</v>
       </c>
       <c r="Q21">
-        <v>5.037920621398</v>
+        <v>0.04014748037755556</v>
       </c>
       <c r="R21">
-        <v>45.341285592582</v>
+        <v>0.3613273233980001</v>
       </c>
       <c r="S21">
-        <v>0.06205388910998764</v>
+        <v>0.0006844743456399623</v>
       </c>
       <c r="T21">
-        <v>0.06205388910998763</v>
+        <v>0.0006844743456399619</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>2.056275666666667</v>
+        <v>0.2219573333333333</v>
       </c>
       <c r="H22">
-        <v>6.168827</v>
+        <v>0.665872</v>
       </c>
       <c r="I22">
-        <v>0.2740548762189265</v>
+        <v>0.03576904889381755</v>
       </c>
       <c r="J22">
-        <v>0.2740548762189265</v>
+        <v>0.03576904889381755</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.02679433333333334</v>
+        <v>6.458467</v>
       </c>
       <c r="N22">
-        <v>0.08038300000000001</v>
+        <v>19.375401</v>
       </c>
       <c r="O22">
-        <v>0.002476306759889555</v>
+        <v>0.6832669775810905</v>
       </c>
       <c r="P22">
-        <v>0.002476306759889555</v>
+        <v>0.6832669775810902</v>
       </c>
       <c r="Q22">
-        <v>0.0550965356378889</v>
+        <v>1.433504112741333</v>
       </c>
       <c r="R22">
-        <v>0.4958688207410001</v>
+        <v>12.901537014672</v>
       </c>
       <c r="S22">
-        <v>0.0006786439425616229</v>
+        <v>0.02443980992862896</v>
       </c>
       <c r="T22">
-        <v>0.0006786439425616229</v>
+        <v>0.02443980992862895</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,25 +1836,25 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>2.056275666666667</v>
+        <v>0.2219573333333333</v>
       </c>
       <c r="H23">
-        <v>6.168827</v>
+        <v>0.665872</v>
       </c>
       <c r="I23">
-        <v>0.2740548762189265</v>
+        <v>0.03576904889381755</v>
       </c>
       <c r="J23">
-        <v>0.2740548762189265</v>
+        <v>0.03576904889381755</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,33 +1863,33 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.706050333333333</v>
+        <v>2.450022</v>
       </c>
       <c r="N23">
-        <v>5.118151</v>
+        <v>7.350066</v>
       </c>
       <c r="O23">
-        <v>0.157671546464246</v>
+        <v>0.2591975970376838</v>
       </c>
       <c r="P23">
-        <v>0.1576715464642459</v>
+        <v>0.2591975970376837</v>
       </c>
       <c r="Q23">
-        <v>3.508109786541889</v>
+        <v>0.5438003497280001</v>
       </c>
       <c r="R23">
-        <v>31.572988078877</v>
+        <v>4.894203147552</v>
       </c>
       <c r="S23">
-        <v>0.04321065614950564</v>
+        <v>0.00927125152160093</v>
       </c>
       <c r="T23">
-        <v>0.04321065614950564</v>
+        <v>0.009271251521600925</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,25 +1898,25 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>2.056275666666667</v>
+        <v>0.2219573333333333</v>
       </c>
       <c r="H24">
-        <v>6.168827</v>
+        <v>0.665872</v>
       </c>
       <c r="I24">
-        <v>0.2740548762189265</v>
+        <v>0.03576904889381755</v>
       </c>
       <c r="J24">
-        <v>0.2740548762189265</v>
+        <v>0.03576904889381755</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1925,90 +1925,90 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.04659033333333334</v>
+        <v>0.02679433333333333</v>
       </c>
       <c r="N24">
-        <v>0.139771</v>
+        <v>0.080383</v>
       </c>
       <c r="O24">
-        <v>0.004305834220376484</v>
+        <v>0.00283467936786964</v>
       </c>
       <c r="P24">
-        <v>0.004305834220376484</v>
+        <v>0.002834679367869639</v>
       </c>
       <c r="Q24">
-        <v>0.09580256873522223</v>
+        <v>0.005947198775111111</v>
       </c>
       <c r="R24">
-        <v>0.8622231186170001</v>
+        <v>0.053524788976</v>
       </c>
       <c r="S24">
-        <v>0.001180034864284495</v>
+        <v>0.000101393784907625</v>
       </c>
       <c r="T24">
-        <v>0.001180034864284495</v>
+        <v>0.0001013937849076249</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>2.056275666666667</v>
+        <v>0.2219573333333333</v>
       </c>
       <c r="H25">
-        <v>6.168827</v>
+        <v>0.665872</v>
       </c>
       <c r="I25">
-        <v>0.2740548762189265</v>
+        <v>0.03576904889381755</v>
       </c>
       <c r="J25">
-        <v>0.2740548762189265</v>
+        <v>0.03576904889381755</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.002428</v>
+        <v>0.4704593333333333</v>
       </c>
       <c r="N25">
-        <v>0.007284000000000001</v>
+        <v>1.411378</v>
       </c>
       <c r="O25">
-        <v>0.0002243934468610964</v>
+        <v>0.04977176886736147</v>
       </c>
       <c r="P25">
-        <v>0.0002243934468610964</v>
+        <v>0.04977176886736145</v>
       </c>
       <c r="Q25">
-        <v>0.004992637318666666</v>
+        <v>0.1044218990684444</v>
       </c>
       <c r="R25">
-        <v>0.04493373586800001</v>
+        <v>0.939797091616</v>
       </c>
       <c r="S25">
-        <v>6.149611830385605E-05</v>
+        <v>0.001780288834148438</v>
       </c>
       <c r="T25">
-        <v>6.149611830385603E-05</v>
+        <v>0.001780288834148438</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -2031,51 +2031,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.09591500000000001</v>
+        <v>0.2219573333333333</v>
       </c>
       <c r="H26">
-        <v>0.287745</v>
+        <v>0.665872</v>
       </c>
       <c r="I26">
-        <v>0.01278329257047005</v>
+        <v>0.03576904889381755</v>
       </c>
       <c r="J26">
-        <v>0.01278329257047004</v>
+        <v>0.03576904889381755</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>6.588395333333334</v>
+        <v>0.04659033333333334</v>
       </c>
       <c r="N26">
-        <v>19.765186</v>
+        <v>0.139771</v>
       </c>
       <c r="O26">
-        <v>0.6088932199877385</v>
+        <v>0.004928977145994893</v>
       </c>
       <c r="P26">
-        <v>0.6088932199877384</v>
+        <v>0.004928977145994892</v>
       </c>
       <c r="Q26">
-        <v>0.6319259383966668</v>
+        <v>0.01034106614577778</v>
       </c>
       <c r="R26">
-        <v>5.68733344557</v>
+        <v>0.093069595312</v>
       </c>
       <c r="S26">
-        <v>0.00778366017527884</v>
+        <v>0.0001763048245316006</v>
       </c>
       <c r="T26">
-        <v>0.007783660175278837</v>
+        <v>0.0001763048245316005</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,25 +2084,25 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0.09591500000000001</v>
+        <v>0.4733796666666667</v>
       </c>
       <c r="H27">
-        <v>0.287745</v>
+        <v>1.420139</v>
       </c>
       <c r="I27">
-        <v>0.01278329257047005</v>
+        <v>0.0762864654573509</v>
       </c>
       <c r="J27">
-        <v>0.01278329257047004</v>
+        <v>0.07628646545735089</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,33 +2111,33 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>2.450022</v>
+        <v>6.458467</v>
       </c>
       <c r="N27">
-        <v>7.350066</v>
+        <v>19.375401</v>
       </c>
       <c r="O27">
-        <v>0.2264286991208885</v>
+        <v>0.6832669775810905</v>
       </c>
       <c r="P27">
-        <v>0.2264286991208884</v>
+        <v>0.6832669775810902</v>
       </c>
       <c r="Q27">
-        <v>0.23499386013</v>
+        <v>3.057306955637667</v>
       </c>
       <c r="R27">
-        <v>2.11494474117</v>
+        <v>27.515762600739</v>
       </c>
       <c r="S27">
-        <v>0.002894504307213251</v>
+        <v>0.05212402268338841</v>
       </c>
       <c r="T27">
-        <v>0.00289450430721325</v>
+        <v>0.05212402268338839</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,60 +2146,60 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0.09591500000000001</v>
+        <v>0.4733796666666667</v>
       </c>
       <c r="H28">
-        <v>0.287745</v>
+        <v>1.420139</v>
       </c>
       <c r="I28">
-        <v>0.01278329257047005</v>
+        <v>0.0762864654573509</v>
       </c>
       <c r="J28">
-        <v>0.01278329257047004</v>
+        <v>0.07628646545735089</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.02679433333333334</v>
+        <v>2.450022</v>
       </c>
       <c r="N28">
-        <v>0.08038300000000001</v>
+        <v>7.350066</v>
       </c>
       <c r="O28">
-        <v>0.002476306759889555</v>
+        <v>0.2591975970376838</v>
       </c>
       <c r="P28">
-        <v>0.002476306759889555</v>
+        <v>0.2591975970376837</v>
       </c>
       <c r="Q28">
-        <v>0.002569978481666667</v>
+        <v>1.159790597686</v>
       </c>
       <c r="R28">
-        <v>0.02312980633500001</v>
+        <v>10.438115379174</v>
       </c>
       <c r="S28">
-        <v>3.16553538059009E-05</v>
+        <v>0.01977326853304362</v>
       </c>
       <c r="T28">
-        <v>3.165535380590088E-05</v>
+        <v>0.01977326853304361</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,60 +2208,60 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0.09591500000000001</v>
+        <v>0.4733796666666667</v>
       </c>
       <c r="H29">
-        <v>0.287745</v>
+        <v>1.420139</v>
       </c>
       <c r="I29">
-        <v>0.01278329257047005</v>
+        <v>0.0762864654573509</v>
       </c>
       <c r="J29">
-        <v>0.01278329257047004</v>
+        <v>0.07628646545735089</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M29">
-        <v>1.706050333333333</v>
+        <v>0.02679433333333333</v>
       </c>
       <c r="N29">
-        <v>5.118151</v>
+        <v>0.080383</v>
       </c>
       <c r="O29">
-        <v>0.157671546464246</v>
+        <v>0.00283467936786964</v>
       </c>
       <c r="P29">
-        <v>0.1576715464642459</v>
+        <v>0.002834679367869639</v>
       </c>
       <c r="Q29">
-        <v>0.1636358177216667</v>
+        <v>0.01268389258188889</v>
       </c>
       <c r="R29">
-        <v>1.472722359495</v>
+        <v>0.114155033237</v>
       </c>
       <c r="S29">
-        <v>0.002015561508490918</v>
+        <v>0.0002162476696796526</v>
       </c>
       <c r="T29">
-        <v>0.002015561508490917</v>
+        <v>0.0002162476696796525</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2270,87 +2270,87 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0.09591500000000001</v>
+        <v>0.4733796666666667</v>
       </c>
       <c r="H30">
-        <v>0.287745</v>
+        <v>1.420139</v>
       </c>
       <c r="I30">
-        <v>0.01278329257047005</v>
+        <v>0.0762864654573509</v>
       </c>
       <c r="J30">
-        <v>0.01278329257047004</v>
+        <v>0.07628646545735089</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0.04659033333333334</v>
+        <v>0.4704593333333333</v>
       </c>
       <c r="N30">
-        <v>0.139771</v>
+        <v>1.411378</v>
       </c>
       <c r="O30">
-        <v>0.004305834220376484</v>
+        <v>0.04977176886736147</v>
       </c>
       <c r="P30">
-        <v>0.004305834220376484</v>
+        <v>0.04977176886736145</v>
       </c>
       <c r="Q30">
-        <v>0.004468711821666668</v>
+        <v>0.2227058823935556</v>
       </c>
       <c r="R30">
-        <v>0.040218406395</v>
+        <v>2.004352941542</v>
       </c>
       <c r="S30">
-        <v>5.504273859901439E-05</v>
+        <v>0.003796912326451224</v>
       </c>
       <c r="T30">
-        <v>5.504273859901438E-05</v>
+        <v>0.003796912326451222</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>24</v>
       </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
       <c r="E31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0.09591500000000001</v>
+        <v>0.4733796666666667</v>
       </c>
       <c r="H31">
-        <v>0.287745</v>
+        <v>1.420139</v>
       </c>
       <c r="I31">
-        <v>0.01278329257047005</v>
+        <v>0.0762864654573509</v>
       </c>
       <c r="J31">
-        <v>0.01278329257047004</v>
+        <v>0.07628646545735089</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -2359,400 +2359,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.002428</v>
+        <v>0.04659033333333334</v>
       </c>
       <c r="N31">
-        <v>0.007284000000000001</v>
+        <v>0.139771</v>
       </c>
       <c r="O31">
-        <v>0.0002243934468610964</v>
+        <v>0.004928977145994893</v>
       </c>
       <c r="P31">
-        <v>0.0002243934468610964</v>
+        <v>0.004928977145994892</v>
       </c>
       <c r="Q31">
-        <v>0.00023288162</v>
+        <v>0.02205491646322223</v>
       </c>
       <c r="R31">
-        <v>0.002095934580000001</v>
+        <v>0.198494248169</v>
       </c>
       <c r="S31">
-        <v>2.868487082121619E-06</v>
+        <v>0.0003760142447880115</v>
       </c>
       <c r="T31">
-        <v>2.868487082121618E-06</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G32">
-        <v>1.312594</v>
-      </c>
-      <c r="H32">
-        <v>3.937782</v>
-      </c>
-      <c r="I32">
-        <v>0.1749389889823652</v>
-      </c>
-      <c r="J32">
-        <v>0.1749389889823652</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>6.588395333333334</v>
-      </c>
-      <c r="N32">
-        <v>19.765186</v>
-      </c>
-      <c r="O32">
-        <v>0.6088932199877385</v>
-      </c>
-      <c r="P32">
-        <v>0.6088932199877384</v>
-      </c>
-      <c r="Q32">
-        <v>8.647888184161333</v>
-      </c>
-      <c r="R32">
-        <v>77.83099365745201</v>
-      </c>
-      <c r="S32">
-        <v>0.1065191643028718</v>
-      </c>
-      <c r="T32">
-        <v>0.1065191643028718</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G33">
-        <v>1.312594</v>
-      </c>
-      <c r="H33">
-        <v>3.937782</v>
-      </c>
-      <c r="I33">
-        <v>0.1749389889823652</v>
-      </c>
-      <c r="J33">
-        <v>0.1749389889823652</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>2.450022</v>
-      </c>
-      <c r="N33">
-        <v>7.350066</v>
-      </c>
-      <c r="O33">
-        <v>0.2264286991208885</v>
-      </c>
-      <c r="P33">
-        <v>0.2264286991208884</v>
-      </c>
-      <c r="Q33">
-        <v>3.215884177068</v>
-      </c>
-      <c r="R33">
-        <v>28.942957593612</v>
-      </c>
-      <c r="S33">
-        <v>0.03961120770080039</v>
-      </c>
-      <c r="T33">
-        <v>0.03961120770080038</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G34">
-        <v>1.312594</v>
-      </c>
-      <c r="H34">
-        <v>3.937782</v>
-      </c>
-      <c r="I34">
-        <v>0.1749389889823652</v>
-      </c>
-      <c r="J34">
-        <v>0.1749389889823652</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M34">
-        <v>0.02679433333333334</v>
-      </c>
-      <c r="N34">
-        <v>0.08038300000000001</v>
-      </c>
-      <c r="O34">
-        <v>0.002476306759889555</v>
-      </c>
-      <c r="P34">
-        <v>0.002476306759889555</v>
-      </c>
-      <c r="Q34">
-        <v>0.03517008116733334</v>
-      </c>
-      <c r="R34">
-        <v>0.3165307305060001</v>
-      </c>
-      <c r="S34">
-        <v>0.0004332026009852752</v>
-      </c>
-      <c r="T34">
-        <v>0.0004332026009852752</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G35">
-        <v>1.312594</v>
-      </c>
-      <c r="H35">
-        <v>3.937782</v>
-      </c>
-      <c r="I35">
-        <v>0.1749389889823652</v>
-      </c>
-      <c r="J35">
-        <v>0.1749389889823652</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>1.706050333333333</v>
-      </c>
-      <c r="N35">
-        <v>5.118151</v>
-      </c>
-      <c r="O35">
-        <v>0.157671546464246</v>
-      </c>
-      <c r="P35">
-        <v>0.1576715464642459</v>
-      </c>
-      <c r="Q35">
-        <v>2.239351431231333</v>
-      </c>
-      <c r="R35">
-        <v>20.154162881082</v>
-      </c>
-      <c r="S35">
-        <v>0.0275829009297412</v>
-      </c>
-      <c r="T35">
-        <v>0.0275829009297412</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G36">
-        <v>1.312594</v>
-      </c>
-      <c r="H36">
-        <v>3.937782</v>
-      </c>
-      <c r="I36">
-        <v>0.1749389889823652</v>
-      </c>
-      <c r="J36">
-        <v>0.1749389889823652</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="L36">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M36">
-        <v>0.04659033333333334</v>
-      </c>
-      <c r="N36">
-        <v>0.139771</v>
-      </c>
-      <c r="O36">
-        <v>0.004305834220376484</v>
-      </c>
-      <c r="P36">
-        <v>0.004305834220376484</v>
-      </c>
-      <c r="Q36">
-        <v>0.06115419199133334</v>
-      </c>
-      <c r="R36">
-        <v>0.5503877279220001</v>
-      </c>
-      <c r="S36">
-        <v>0.0007532582852383328</v>
-      </c>
-      <c r="T36">
-        <v>0.0007532582852383326</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G37">
-        <v>1.312594</v>
-      </c>
-      <c r="H37">
-        <v>3.937782</v>
-      </c>
-      <c r="I37">
-        <v>0.1749389889823652</v>
-      </c>
-      <c r="J37">
-        <v>0.1749389889823652</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M37">
-        <v>0.002428</v>
-      </c>
-      <c r="N37">
-        <v>0.007284000000000001</v>
-      </c>
-      <c r="O37">
-        <v>0.0002243934468610964</v>
-      </c>
-      <c r="P37">
-        <v>0.0002243934468610964</v>
-      </c>
-      <c r="Q37">
-        <v>0.003186978232</v>
-      </c>
-      <c r="R37">
-        <v>0.02868280408800001</v>
-      </c>
-      <c r="S37">
-        <v>3.925516272814829E-05</v>
-      </c>
-      <c r="T37">
-        <v>3.925516272814829E-05</v>
+        <v>0.0003760142447880113</v>
       </c>
     </row>
   </sheetData>
